--- a/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-1/06_Log.M2.Scaled.Coef.xlsx
+++ b/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-1/06_Log.M2.Scaled.Coef.xlsx
@@ -422,52 +422,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.79 (0.59, 1.07)</t>
+          <t>0.69 (0.52, 0.92)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.112</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.99 (0.70, 1.41)</t>
+          <t>0.85 (0.77, 0.94)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.09 (0.77, 1.57)</t>
+          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.622</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.91 (0.65, 1.31)</t>
+          <t>0.85 (0.76, 0.95)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.610</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.93 (0.66, 1.32)</t>
+          <t>0.80 (0.71, 0.90)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.684</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -479,166 +479,166 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.76 (0.57, 0.99)</t>
+          <t>0.74 (0.55, 0.96)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.049</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.78 (0.61, 0.99)</t>
+          <t>0.91 (0.84, 0.98)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.86 (0.68, 1.09)</t>
+          <t>0.97 (0.94, 1.00)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.215</t>
+          <t>0.069</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.77 (0.60, 0.99)</t>
+          <t>0.91 (0.84, 0.99)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.78 (0.61, 0.99)</t>
+          <t>0.88 (0.80, 0.97)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.013</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HF</t>
+          <t>Heart failure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.43 (0.17, 0.88)</t>
+          <t>0.18 (0.06, 0.43)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.62 (0.36, 1.00)</t>
+          <t>0.76 (0.64, 0.89)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.58 (0.36, 0.91)</t>
+          <t>0.92 (0.88, 0.97)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.53 (0.30, 0.88)</t>
+          <t>0.70 (0.58, 0.82)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.61 (0.35, 1.00)</t>
+          <t>0.69 (0.54, 0.85)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.065</t>
+          <t>0.002</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Myocardial Infarction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.92 (0.56, 1.38)</t>
+          <t>0.33 (0.12, 0.72)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.724</t>
+          <t>0.014</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.68 (0.43, 1.03)</t>
+          <t>0.79 (0.66, 0.93)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.55 (0.35, 0.82)</t>
+          <t>0.91 (0.86, 0.96)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.63 (0.39, 0.98)</t>
+          <t>0.82 (0.69, 0.96)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.049</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.71 (0.44, 1.09)</t>
+          <t>0.73 (0.56, 0.91)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.139</t>
+          <t>0.010</t>
         </is>
       </c>
     </row>
@@ -650,52 +650,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.88 (0.64, 1.16)</t>
+          <t>0.55 (0.36, 0.81)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.386</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.82 (0.60, 1.10)</t>
+          <t>0.88 (0.79, 0.97)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.188</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.80 (0.59, 1.06)</t>
+          <t>0.96 (0.93, 1.00)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.126</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.77 (0.56, 1.04)</t>
+          <t>0.89 (0.80, 0.98)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.092</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.82 (0.60, 1.11)</t>
+          <t>0.85 (0.74, 0.96)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.013</t>
         </is>
       </c>
     </row>
